--- a/results/NeuralNetClassifier-train_df.xlsx
+++ b/results/NeuralNetClassifier-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7010309278350517</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6741573033707865</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7293120638085743</v>
+        <v>0.6701680672268908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7200956937799043</v>
+        <v>0.6744019138755981</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6875941156029191</v>
+        <v>0.6709905660377358</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7572872779510931</v>
+        <v>0.6838649438269933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.685137924119626</v>
+        <v>0.6793974437005478</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6222222222222222</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6746987951807228</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6909090909090909</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.737864077669903</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7069444444444444</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7138755980861244</v>
+        <v>0.5526315789473684</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7062814364253129</v>
+        <v>0.4771825396825397</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7224313022700118</v>
+        <v>0.7740727316660626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7120546074055069</v>
+        <v>0.5295912271718723</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.6436781609195403</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6514378478664193</v>
+        <v>0.6720779220779221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6562200956937799</v>
+        <v>0.6775119617224881</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6510318949343339</v>
+        <v>0.6652734238941136</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6666566920023141</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6585769331638726</v>
+        <v>0.6692209450830141</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.7010309278350517</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C18" t="n">
-        <v>0.509090909090909</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6222222222222221</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6672413793103449</v>
+        <v>0.7293120638085743</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6624401913875597</v>
+        <v>0.7200956937799043</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6340277777777777</v>
+        <v>0.6875941156029191</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6915090841675936</v>
+        <v>0.7572872779510931</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6344086021505376</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6318697729988052</v>
+        <v>0.685137924119626</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="C22" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7415730337078651</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7628865979381443</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7640056022408963</v>
+        <v>0.6936456400742115</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7705741626794258</v>
+        <v>0.6997607655502392</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7522298158230047</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7853829703924581</v>
+        <v>0.7122558700899715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7541778297580303</v>
+        <v>0.6905615292712067</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
